--- a/test/validation/Scenarios/RenalValidation.xlsx
+++ b/test/validation/Scenarios/RenalValidation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44470ED1-0D21-4189-A5CC-FEBD66AD5A1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6315" yWindow="690" windowWidth="18360" windowHeight="4725" activeTab="3"/>
+    <workbookView xWindow="16200" yWindow="8085" windowWidth="32670" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -23,7 +29,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$F$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">UnilateralStenosis!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -75,9 +89,6 @@
     <t>1. Klabunde R. E. Cardiovascular Physiology Concepts. 2012. 2nd Edition. P. 217-220</t>
   </si>
   <si>
-    <t>2. Warwick P A, D E Ramsey and M Takata. "Development of Hypertension from Unilateral Artery Stenosis in Concious Dogs." Hypertension. 1990. Vol 16. No 4. p. 441-451.</t>
-  </si>
-  <si>
     <t>3. De Bruyne B. et al. "Assessment of Renal Artery Stenosis Severity by Pressure Gradient Measurements." Journal of the American College of Cardiology. 2006. Vol 48. No 9. p. 1851-1855.</t>
   </si>
   <si>
@@ -192,12 +203,6 @@
     <t>------------------------</t>
   </si>
   <si>
-    <t>Sampled Senario Time (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60% unilarteral occlusion of kidneys </t>
-  </si>
-  <si>
     <t>Increase @cite debrunye2006assessment</t>
   </si>
   <si>
@@ -210,12 +215,6 @@
     <t>Decrease @cite textor2011atherosclerotic</t>
   </si>
   <si>
-    <t>Action Occurance Time (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90% bilarteral occlusion of kidneys </t>
-  </si>
-  <si>
     <t>Initiate 250 mL/min Hemorrhage</t>
   </si>
   <si>
@@ -345,12 +344,6 @@
     <t>Increase @cite guyton2006medical</t>
   </si>
   <si>
-    <t>Patient is experiancing starvation</t>
-  </si>
-  <si>
-    <t>Sampled Senario Time (days)</t>
-  </si>
-  <si>
     <t>Urine Sodium Concentration (mmol/L)</t>
   </si>
   <si>
@@ -376,12 +369,33 @@
   </si>
   <si>
     <t>%Renal Blood Flow (mL/min)</t>
+  </si>
+  <si>
+    <t>2. Warwick P A, D E Ramsey and M Takata. "Development of Hypertension from Unilateral Artery Stenosis in Conscious Dogs." Hypertension. 1990. Vol 16. No 4. p. 441-451.</t>
+  </si>
+  <si>
+    <t>Action Occurrence Time (s)</t>
+  </si>
+  <si>
+    <t>Sampled Scenario Time (days)</t>
+  </si>
+  <si>
+    <t>Patient is experiencing starvation</t>
+  </si>
+  <si>
+    <t>Sampled Scenario Time (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90% bilateral occlusion of kidneys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">60% unilateral occlusion of kidneys </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -786,6 +800,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -833,7 +850,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -866,9 +883,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -901,6 +935,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1076,14 +1127,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,29 +1157,29 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="38" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>22</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -1140,48 +1191,48 @@
         <v>0</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>20</v>
-      </c>
       <c r="M2" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R2" s="28" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7">
         <v>3</v>
@@ -1193,48 +1244,48 @@
         <v>1</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
         <v>7</v>
@@ -1246,48 +1297,48 @@
         <v>1</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N4" s="32">
         <v>1</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P4" s="33">
         <v>1</v>
       </c>
       <c r="Q4" s="25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R4" s="34">
         <v>0</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
         <v>6</v>
@@ -1299,48 +1350,48 @@
         <v>1</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N5" s="32">
         <v>7</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P5" s="33">
         <v>1</v>
       </c>
       <c r="Q5" s="25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R5" s="34">
         <v>0</v>
       </c>
       <c r="S5" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7">
         <v>6</v>
@@ -1352,48 +1403,48 @@
         <v>0</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N6" s="32">
         <v>7</v>
       </c>
       <c r="O6" s="25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P6" s="33">
         <v>1</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R6" s="34">
         <v>0</v>
       </c>
       <c r="S6" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
         <v>2</v>
@@ -1405,48 +1456,48 @@
         <v>0</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N7" s="32">
         <v>8</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P7" s="33">
         <v>0</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R7" s="34">
         <v>0</v>
       </c>
       <c r="S7" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -1458,46 +1509,46 @@
         <v>0</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N8" s="32">
         <v>8</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P8" s="33">
         <v>0</v>
       </c>
       <c r="Q8" s="25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R8" s="34">
         <v>0</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7">
         <v>26</v>
@@ -1509,113 +1560,113 @@
         <v>3</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N9" s="32">
         <v>3</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P9" s="33">
         <v>0</v>
       </c>
       <c r="Q9" s="25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R9" s="34">
         <v>0</v>
       </c>
       <c r="S9" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I10" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N10" s="32">
         <v>1</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P10" s="33">
         <v>3</v>
       </c>
       <c r="Q10" s="25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R10" s="34">
         <v>0</v>
       </c>
       <c r="S10" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I11" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" s="30"/>
       <c r="K11" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N11" s="32">
         <f>SUM(N4:N10)</f>
         <v>35</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P11" s="33">
         <f>SUM(P4:P10)</f>
         <v>6</v>
       </c>
       <c r="Q11" s="25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R11" s="34">
         <f>SUM(R4:R10)</f>
         <v>0</v>
       </c>
       <c r="S11" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="12"/>
     </row>
@@ -1626,57 +1677,57 @@
     </row>
     <row r="14" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1693,14 +1744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,141 +1776,141 @@
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>37</v>
-      </c>
       <c r="P2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1873,14 +1924,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:X3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,215 +1963,215 @@
   <sheetData>
     <row r="1" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="22" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="T1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U1" s="22" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="V1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W1" s="22" t="s">
         <v>11</v>
       </c>
       <c r="X1" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="15">
         <v>120</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="20" t="s">
+      <c r="V3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="R3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="U3" s="20" t="s">
+      <c r="X3" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2134,14 +2185,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,215 +2223,215 @@
   <sheetData>
     <row r="1" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="22" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="T1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U1" s="22" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="V1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W1" s="22" t="s">
         <v>11</v>
       </c>
       <c r="X1" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="F3" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="15">
         <v>120</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>59</v>
-      </c>
       <c r="V3" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2394,11 +2445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,210 +2475,210 @@
   <sheetData>
     <row r="1" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="17">
         <v>30</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="17">
         <v>270</v>
       </c>
       <c r="J3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="P3" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="15">
         <v>270</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="15">
         <v>670</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="P4" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2636,11 +2687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2666,210 +2717,210 @@
   <sheetData>
     <row r="1" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="17">
         <v>30</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="17">
         <v>520</v>
       </c>
       <c r="J3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="P3" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="15">
         <v>520</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="15">
         <v>500</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="P4" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2878,11 +2929,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,141 +2958,141 @@
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O4" s="22" t="s">
         <v>3</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="15">
         <v>50</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="15">
         <v>900</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3050,11 +3101,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:R4"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3080,159 +3131,159 @@
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="15">
         <v>14400</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M4" s="36" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="P4" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="Q4" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3241,11 +3292,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,159 +3322,159 @@
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="15">
         <v>4</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
